--- a/b_list_5.xlsx
+++ b/b_list_5.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5848,11 +5848,21 @@
       <c r="C208" t="n">
         <v>3029755</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>1573776</v>
+      </c>
+      <c r="E208" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F208" t="n">
+        <v>101508552000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>28529519901000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.3600000143051147</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5869,6 +5879,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5620424</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5881,7 +5907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11297,11 +11323,21 @@
       <c r="C208" t="n">
         <v>2760215</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>114273</v>
+      </c>
+      <c r="E208" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F208" t="n">
+        <v>31367938500</v>
+      </c>
+      <c r="G208" t="n">
+        <v>43056049131000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.07000000029802322</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11318,6 +11354,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>278500</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3470467</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11330,7 +11382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16746,11 +16798,21 @@
       <c r="C208" t="n">
         <v>29136</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>64517</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F208" t="n">
+        <v>27742310000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2615536060000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1.059999942779541</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16767,6 +16829,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>435000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>42379</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16779,7 +16857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22195,11 +22273,21 @@
       <c r="C208" t="n">
         <v>122043</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>65206</v>
+      </c>
+      <c r="E208" t="n">
+        <v>21544022</v>
+      </c>
+      <c r="F208" t="n">
+        <v>14638747000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4836632939000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.300000011920929</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22217,6 +22305,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>214500</v>
+      </c>
+      <c r="C210" t="n">
+        <v>121618</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_5.xlsx
+++ b/b_list_5.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5874,11 +5874,21 @@
       <c r="C209" t="n">
         <v>1815606</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>1496926</v>
+      </c>
+      <c r="E209" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F209" t="n">
+        <v>96102649200</v>
+      </c>
+      <c r="G209" t="n">
+        <v>28396824459600</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.3400000035762787</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5888,13 +5898,29 @@
         <v>62700</v>
       </c>
       <c r="C210" t="n">
-        <v>5620424</v>
+        <v>5643655</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4307895</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5907,7 +5933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11349,11 +11375,21 @@
       <c r="C209" t="n">
         <v>1325780</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>129117</v>
+      </c>
+      <c r="E209" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F209" t="n">
+        <v>34474239000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>41879654346000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.07999999821186066</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11370,6 +11406,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>264000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2287056</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11382,7 +11434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16824,11 +16876,21 @@
       <c r="C209" t="n">
         <v>56325</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>53641</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F209" t="n">
+        <v>23762963000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2694610406000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.8799999952316284</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16845,6 +16907,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>428500</v>
+      </c>
+      <c r="C211" t="n">
+        <v>25339</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16857,7 +16935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22299,11 +22377,21 @@
       <c r="C209" t="n">
         <v>114083</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>56077</v>
+      </c>
+      <c r="E209" t="n">
+        <v>21544022</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12364978500</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4750456851000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.2599999904632568</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22321,6 +22409,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>216500</v>
+      </c>
+      <c r="C211" t="n">
+        <v>82505</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_5.xlsx
+++ b/b_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,11 +6057,21 @@
       <c r="C216" t="n">
         <v>3253680</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>1335820</v>
+      </c>
+      <c r="E216" t="n">
+        <v>442318138</v>
+      </c>
+      <c r="F216" t="n">
+        <v>85091734000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>28175665390600</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.300000011920929</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6071,13 +6081,29 @@
         <v>61400</v>
       </c>
       <c r="C217" t="n">
-        <v>3493416</v>
+        <v>3530001</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2502945</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6090,7 +6116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11714,11 +11740,21 @@
       <c r="C216" t="n">
         <v>724253</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>368997</v>
+      </c>
+      <c r="E216" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F216" t="n">
+        <v>97968703500</v>
+      </c>
+      <c r="G216" t="n">
+        <v>41644375389000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11735,6 +11771,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>255000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>507818</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11747,7 +11799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17371,11 +17423,21 @@
       <c r="C216" t="n">
         <v>29495</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>59802</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F216" t="n">
+        <v>25954068000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2639866628000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.9800000190734863</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17392,6 +17454,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>462000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>204581</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17404,7 +17482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23028,11 +23106,21 @@
       <c r="C216" t="n">
         <v>96339</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>25623</v>
+      </c>
+      <c r="E216" t="n">
+        <v>7533015</v>
+      </c>
+      <c r="F216" t="n">
+        <v>35052264000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>10305164520000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.3400000035762787</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23049,6 +23137,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1385000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>80716</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23061,7 +23165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28685,11 +28789,21 @@
       <c r="C216" t="n">
         <v>189124</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>61545</v>
+      </c>
+      <c r="E216" t="n">
+        <v>21544022</v>
+      </c>
+      <c r="F216" t="n">
+        <v>14339985000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5019757126000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.2899999916553497</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -28707,6 +28821,22 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>227000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>161321</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_5.xlsx
+++ b/b_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6135,11 +6135,21 @@
       <c r="C219" t="n">
         <v>2541985</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>1805782</v>
+      </c>
+      <c r="E219" t="n">
+        <v>442384158</v>
+      </c>
+      <c r="F219" t="n">
+        <v>109610967400</v>
+      </c>
+      <c r="G219" t="n">
+        <v>26852718390600</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.4099999964237213</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6149,13 +6159,29 @@
         <v>57500</v>
       </c>
       <c r="C220" t="n">
-        <v>5775053</v>
+        <v>5810827</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>58200</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2926054</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6168,7 +6194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11870,11 +11896,21 @@
       <c r="C219" t="n">
         <v>507818</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>487785</v>
+      </c>
+      <c r="E219" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F219" t="n">
+        <v>124385175000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>39997422690000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.3100000023841858</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11891,6 +11927,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>248500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>570316</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11903,7 +11955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17605,11 +17657,21 @@
       <c r="C219" t="n">
         <v>204581</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>34564</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F219" t="n">
+        <v>15968568000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2810180604000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.5699999928474426</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17626,6 +17688,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>469000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>117361</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17638,7 +17716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23340,11 +23418,21 @@
       <c r="C219" t="n">
         <v>80716</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>47203</v>
+      </c>
+      <c r="E219" t="n">
+        <v>7533015</v>
+      </c>
+      <c r="F219" t="n">
+        <v>65376155000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>10433225775000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.6299999952316284</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23361,6 +23449,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1375000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>29206</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23373,7 +23477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29075,11 +29179,21 @@
       <c r="C219" t="n">
         <v>161321</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>83237</v>
+      </c>
+      <c r="E219" t="n">
+        <v>21544022</v>
+      </c>
+      <c r="F219" t="n">
+        <v>18894799000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>4890492994000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.3899999856948853</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29097,6 +29211,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>191700</v>
+      </c>
+      <c r="C221" t="n">
+        <v>871913</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_5.xlsx
+++ b/b_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6317,11 +6317,21 @@
       <c r="C226" t="n">
         <v>1912277</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>2199872</v>
+      </c>
+      <c r="E226" t="n">
+        <v>442384158</v>
+      </c>
+      <c r="F226" t="n">
+        <v>127592576000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>25658281164000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6331,13 +6341,29 @@
         <v>61000</v>
       </c>
       <c r="C227" t="n">
-        <v>3291512</v>
+        <v>3312601</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1620028</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6350,7 +6376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12234,11 +12260,21 @@
       <c r="C226" t="n">
         <v>1218659</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>562161</v>
+      </c>
+      <c r="E226" t="n">
+        <v>156852638</v>
+      </c>
+      <c r="F226" t="n">
+        <v>142226733000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>39683717414000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.3600000143051147</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12255,6 +12291,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>251500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2028550</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12267,7 +12319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18151,11 +18203,21 @@
       <c r="C226" t="n">
         <v>32510</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>6249</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6082642</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2758933500</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2685486443000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18172,6 +18234,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>447000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>18587</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18184,7 +18262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24068,11 +24146,21 @@
       <c r="C226" t="n">
         <v>41596</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>65714</v>
+      </c>
+      <c r="E226" t="n">
+        <v>7533015</v>
+      </c>
+      <c r="F226" t="n">
+        <v>86151054000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>9875782665000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.8700000047683716</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24089,6 +24177,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1456000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>65826</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24101,7 +24205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29985,11 +30089,21 @@
       <c r="C226" t="n">
         <v>224123</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>87082</v>
+      </c>
+      <c r="E226" t="n">
+        <v>21544022</v>
+      </c>
+      <c r="F226" t="n">
+        <v>18113056000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4481156576000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.4000000059604645</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30007,6 +30121,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>213500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>134372</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
